--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>Invalid</t>
-  </si>
-  <si>
-    <t>laks@yahoo.com</t>
-  </si>
-  <si>
-    <t>xyz</t>
   </si>
   <si>
     <t>abc123@gmail.com</t>
@@ -473,7 +467,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -496,10 +490,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -529,10 +523,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -540,10 +534,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -558,8 +552,9 @@
     <hyperlink ref="B2" r:id="rId5" display="test@123"/>
     <hyperlink ref="A6" r:id="rId6"/>
     <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>